--- a/scheme/Sgt/issues_metadados_sgt.xlsx
+++ b/scheme/Sgt/issues_metadados_sgt.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="0_SCHEMA_METADATA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1_ISSUES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2_SCHEME_MEASURES" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3_MODEL_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4_MODEL_METRICS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SCHEME_MEASURES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="METADATA_ISSUES" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="METADATA_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="METADATA_METRICS" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24462,7 +24462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24473,2370 +24473,94 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rule</t>
+          <t>Indicator</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>desc</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>owner</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>column</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>constraint_name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>length</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>limit</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQMS01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>OCORRENCIA_DIAS</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Total number of tables</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQMS02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>OCORRENCIA_HORAS_EXTRAS</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>Total number of columns</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CAT_CONTRATO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ADI_NOTURNO</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>Total number of primary key</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CATEGORIA_CONTRATO</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ADI_NOTURNO</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>Total number of foreign key</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>REVISAO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TIMESTAMP</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CAT_CONTRATO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>VLR_VALE_ALIMENTACAO_MENSAL</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CAT_CONTRATO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>VLR_VALE_TRANSPORTE_MENSAL</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CAT_CONTRATO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>VLR_VALE_ALIMENTACAO_DIARIO</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CAT_CONTRATO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ADI_NOTURNO</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CAT_CONTRATO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VLR_OUTRAS_VANTAGENS</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CAT_CONTRATO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VLR_TAXASINDICAL_ADI_NOT</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CAT_CONTRATO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VLR_PERCENTUAL_RETENCAO</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CAT_CONTRATO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VLR_VALE_TRANSPORTE_DIARIO</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CAT_CONTRATO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VLR_CUSTO_CATEGORIA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>CATEGORIA_CONTRATO</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>VLR_VALE_ALIMENTACAO_MENSAL</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>CATEGORIA_CONTRATO</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>VLR_VALE_TRANSPORTE_MENSAL</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>CATEGORIA_CONTRATO</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>VLR_VALE_ALIMENTACAO_DIARIO</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CATEGORIA_CONTRATO</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>VLR_VALE_TRANSPORTE_DIARIO</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>CATEGORIA_CONTRATO</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ADI_NOTURNO</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>CATEGORIA_CONTRATO</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>VLR_OUTRAS_VANTAGENS</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>CATEGORIA_CONTRATO</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>VLR_TAXASINDICAL_ADI_NOT</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>CATEGORIA_CONTRATO</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>VLR_PERCENTUAL_RETENCAO</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>CATEGORIA_CONTRATO</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>VLR_ADICIONAL_PERICULOSIDADE</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>CONTRATO</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>TXT_SIC</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>CONTRATO_ADITIVO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>SEQ_CONTRATO_ADITIVO</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>CONTRATO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>TXT_SIC</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>DIARIA</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>SEQ_DIARIA</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>DIARIA_ANEXO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>SEQ_REVISAO</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>DIARIA_ANEXO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>COD_REVISAO</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>DIARIA_ANEXO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>BIN_ANEXO</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>DIARIA_ANEXO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NOM_ANEXO</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>DIARIA_ANEXO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>SEQ_DIARIA_ANEXO</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>OCORRENCIA</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>DAT_INCLUSAO</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>OCORRENCIA</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NUM_SOBREAVISO</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>OCORRENCIA</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>TXT_OBSERVACAO</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>OCORRENCIA_ADICIONAL_NOTURNO</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>DAT_INCLUSAO</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>OCORRENCIA_DIAS_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>COD_TIPO_OCORRENCIA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>OCORRENCIA_DIAS_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>DAT_INCLUSAO</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>OCORRENCIA_HORAS_EXTRAS</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>DAT_DIA</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>OCORRENCIA_HORAS_EXTRAS</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>TXT_IS_FERIADO_MUNICIPAL</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>OCORRENCIA_HORAS_EXTRAS</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>DAT_INCLUSAO</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>TXT_COMPLEMENTO_ENDERECO</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>TXT_BAIRRO</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>TXT_CEP</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>COD_MUNICIPIO</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>COD_UF</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>NOM_PARENTESCO</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>NUM_ENDERECO</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>COD_PARENTESCO</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>DSC_CLASSIFICACAO_PARENTESCO</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>DSC_UNIDADE_PARENTESCO</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>STA_BENEFICIARIO_INSS</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>COD_CIDADE</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>COD_ESTADO</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>TERCEIRO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>TXT_COMPLEMENTO_ENDERECO</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>TERCEIRO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>TXT_BAIRRO</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>TERCEIRO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>TXT_CEP</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>TERCEIRO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>COD_MUNICIPIO</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>TERCEIRO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>COD_UF</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>TERCEIRO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>NOM_PARENTESCO</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>TERCEIRO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>NUM_ENDERECO</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>TERCEIRO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>COD_PARENTESCO</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>TERCEIRO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>DSC_CLASSIFICACAO_PARENTESCO</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>TERCEIRO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>DSC_UNIDADE_PARENTESCO</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>TERCEIRO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>STA_BENEFICIARIO_INSS</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>TERCEIRO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>COD_CIDADE</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>TERCEIRO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>COD_ESTADO</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>TRIBUTO_MUNICIPIO</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>COD_UF</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>TRIBUTO_MUNICIPIO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>COD_UF</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>VINCULO</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>DAT_ADMISSAO</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>VINCULO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>DAT_DEMISSAO</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>CONTRATO_ADITIVO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>SEQ_REVISAO</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>SYS_C00258323</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>OCORRENCIA_ADI_NOT_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>SEQ_REVISAO</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>SYS_C00259089</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>OCORRENCIA_DIAS_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>SEQ_REVISAO</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>SYS_C00258344</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>OCORRENCIA_HOR_EXT_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>SEQ_REVISAO</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>SYS_C00258346</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>TRIBUTO_MUNICIPIO_AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>SEQ_REVISAO</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>SYS_C00259088</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>SGT</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>CATEGORIA_CONTRATO</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>SEQ_CAT_CATEGORIA</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>PK_CAT_R_CAT_CON</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+          <t>Total number of unique key</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26849,7 +24573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26860,94 +24584,2370 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indicator</t>
+          <t>rule</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>desc</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>column</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>constraint_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>limit</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD01</t>
+          <t>MQME10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
+          <t>Total number of tables with plural names</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>OCORRENCIA_DIAS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD02</t>
+          <t>MQME10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>386</v>
-      </c>
+          <t>Total number of tables with plural names</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>OCORRENCIA_HORAS_EXTRAS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD03</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of primary key</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CAT_CONTRATO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ADI_NOTURNO</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD04</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of foreign key</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CATEGORIA_CONTRATO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ADI_NOTURNO</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD05</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of unique key</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>REVISAO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CAT_CONTRATO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>VLR_VALE_ALIMENTACAO_MENSAL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CAT_CONTRATO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VLR_VALE_TRANSPORTE_MENSAL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CAT_CONTRATO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VLR_VALE_ALIMENTACAO_DIARIO</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CAT_CONTRATO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ADI_NOTURNO</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CAT_CONTRATO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VLR_OUTRAS_VANTAGENS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CAT_CONTRATO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VLR_TAXASINDICAL_ADI_NOT</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CAT_CONTRATO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VLR_PERCENTUAL_RETENCAO</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CAT_CONTRATO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VLR_VALE_TRANSPORTE_DIARIO</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CAT_CONTRATO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VLR_CUSTO_CATEGORIA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CATEGORIA_CONTRATO</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VLR_VALE_ALIMENTACAO_MENSAL</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CATEGORIA_CONTRATO</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VLR_VALE_TRANSPORTE_MENSAL</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CATEGORIA_CONTRATO</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>VLR_VALE_ALIMENTACAO_DIARIO</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CATEGORIA_CONTRATO</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>VLR_VALE_TRANSPORTE_DIARIO</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CATEGORIA_CONTRATO</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ADI_NOTURNO</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CATEGORIA_CONTRATO</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>VLR_OUTRAS_VANTAGENS</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CATEGORIA_CONTRATO</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VLR_TAXASINDICAL_ADI_NOT</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CATEGORIA_CONTRATO</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>VLR_PERCENTUAL_RETENCAO</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CATEGORIA_CONTRATO</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>VLR_ADICIONAL_PERICULOSIDADE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CONTRATO</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TXT_SIC</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CONTRATO_ADITIVO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SEQ_CONTRATO_ADITIVO</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CONTRATO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>TXT_SIC</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DIARIA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SEQ_DIARIA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DIARIA_ANEXO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SEQ_REVISAO</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DIARIA_ANEXO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COD_REVISAO</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DIARIA_ANEXO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>BIN_ANEXO</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DIARIA_ANEXO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NOM_ANEXO</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DIARIA_ANEXO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SEQ_DIARIA_ANEXO</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>OCORRENCIA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>DAT_INCLUSAO</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>OCORRENCIA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NUM_SOBREAVISO</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>OCORRENCIA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>TXT_OBSERVACAO</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>OCORRENCIA_ADICIONAL_NOTURNO</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>DAT_INCLUSAO</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>OCORRENCIA_DIAS_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>COD_TIPO_OCORRENCIA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>OCORRENCIA_DIAS_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>DAT_INCLUSAO</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>OCORRENCIA_HORAS_EXTRAS</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>DAT_DIA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>OCORRENCIA_HORAS_EXTRAS</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>TXT_IS_FERIADO_MUNICIPAL</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>OCORRENCIA_HORAS_EXTRAS</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>DAT_INCLUSAO</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>TXT_COMPLEMENTO_ENDERECO</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>TXT_BAIRRO</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>TXT_CEP</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>COD_MUNICIPIO</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>COD_UF</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NOM_PARENTESCO</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NUM_ENDERECO</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>COD_PARENTESCO</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>DSC_CLASSIFICACAO_PARENTESCO</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>DSC_UNIDADE_PARENTESCO</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>STA_BENEFICIARIO_INSS</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>COD_CIDADE</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>COD_ESTADO</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>TERCEIRO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>TXT_COMPLEMENTO_ENDERECO</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>TERCEIRO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>TXT_BAIRRO</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>TERCEIRO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TXT_CEP</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>TERCEIRO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>COD_MUNICIPIO</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>TERCEIRO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>COD_UF</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>TERCEIRO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NOM_PARENTESCO</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>TERCEIRO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NUM_ENDERECO</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>TERCEIRO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>COD_PARENTESCO</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>TERCEIRO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>DSC_CLASSIFICACAO_PARENTESCO</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>TERCEIRO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>DSC_UNIDADE_PARENTESCO</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>TERCEIRO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>STA_BENEFICIARIO_INSS</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>TERCEIRO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>COD_CIDADE</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>TERCEIRO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>COD_ESTADO</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>TRIBUTO_MUNICIPIO</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>COD_UF</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>TRIBUTO_MUNICIPIO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>COD_UF</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>VINCULO</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>DAT_ADMISSAO</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>VINCULO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>DAT_DEMISSAO</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CONTRATO_ADITIVO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>SEQ_REVISAO</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>SYS_C00258323</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>OCORRENCIA_ADI_NOT_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SEQ_REVISAO</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>SYS_C00259089</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>OCORRENCIA_DIAS_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>SEQ_REVISAO</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>SYS_C00258344</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>OCORRENCIA_HOR_EXT_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>SEQ_REVISAO</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>SYS_C00258346</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>TRIBUTO_MUNICIPIO_AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>SEQ_REVISAO</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>SYS_C00259088</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SGT</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CATEGORIA_CONTRATO</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>SEQ_CAT_CATEGORIA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>PK_CAT_R_CAT_CON</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26960,7 +26960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26988,76 +26988,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQME00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
+          <t>Total number of columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMEA1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD10</t>
+          <t>MQMEA2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of tables with column names without comments</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -27071,7 +27041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27099,29 +27069,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQMD01</t>
+          <t>IQME01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Table names in singular</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>94.74%</t>
+          <t>82.90%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQMD02</t>
+          <t>IQME02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Table names with recommended size</t>
+          <t>Columns with data type</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -27133,29 +27103,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQMD03</t>
+          <t>IQME03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Table columns with correct prefixes</t>
+          <t>Length-required columns with data length</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQMD04</t>
+          <t>IQME04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Table columns with recommend size</t>
+          <t>NUMBER columns with valid scale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -27167,68 +27137,51 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQMD05</t>
+          <t>IQME05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Table columns with comments</t>
+          <t>Columns with valid num_distinct</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>82.90%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQMD06</t>
+          <t>IQME06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Table with standard PK prefixes</t>
+          <t>Columns with valid num_nulls</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>84.38%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQMD07</t>
+          <t>IQME07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Table with standard FK prefixes</t>
+          <t>Columns with valid density</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>94.12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>IQMD08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Table with standard UK prefixes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>

--- a/scheme/Sgt/issues_metadados_sgt.xlsx
+++ b/scheme/Sgt/issues_metadados_sgt.xlsx
@@ -24490,7 +24490,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMS01</t>
+          <t>MQME001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -24505,7 +24505,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMS02</t>
+          <t>MQME002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -24520,7 +24520,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMS03</t>
+          <t>MQME003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -24535,7 +24535,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMS04</t>
+          <t>MQME004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -24550,7 +24550,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMS05</t>
+          <t>MQME005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -24626,7 +24626,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -24652,7 +24652,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -24678,7 +24678,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -24708,7 +24708,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -24738,7 +24738,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -24768,7 +24768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -24798,7 +24798,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -24828,7 +24828,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -24858,7 +24858,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -24918,7 +24918,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -24948,7 +24948,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -24978,7 +24978,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -25008,7 +25008,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -25068,7 +25068,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -25098,7 +25098,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -25128,7 +25128,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -25158,7 +25158,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -25218,7 +25218,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -25248,7 +25248,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -25278,7 +25278,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -25308,7 +25308,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -25338,7 +25338,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -25368,7 +25368,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -25398,7 +25398,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -25428,7 +25428,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -25458,7 +25458,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -25488,7 +25488,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -25518,7 +25518,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -25548,7 +25548,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -25578,7 +25578,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -25608,7 +25608,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -25638,7 +25638,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -25668,7 +25668,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -25698,7 +25698,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -25728,7 +25728,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -25758,7 +25758,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -25788,7 +25788,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -25818,7 +25818,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -25848,7 +25848,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -25878,7 +25878,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -25908,7 +25908,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -25938,7 +25938,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -25968,7 +25968,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -25998,7 +25998,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -26028,7 +26028,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -26058,7 +26058,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -26088,7 +26088,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -26118,7 +26118,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -26148,7 +26148,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -26178,7 +26178,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -26208,7 +26208,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -26238,7 +26238,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -26268,7 +26268,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -26298,7 +26298,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -26328,7 +26328,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -26358,7 +26358,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -26388,7 +26388,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -26418,7 +26418,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -26448,7 +26448,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -26478,7 +26478,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -26508,7 +26508,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -26538,7 +26538,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -26568,7 +26568,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -26598,7 +26598,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -26628,7 +26628,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -26658,7 +26658,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -26688,7 +26688,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -26718,7 +26718,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -26748,7 +26748,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -26782,7 +26782,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -26816,7 +26816,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -26850,7 +26850,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -26884,7 +26884,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -26918,7 +26918,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -26960,7 +26960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26988,45 +26988,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME00</t>
+          <t>MQME006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>386</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMEA1</t>
+          <t>MQME007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of length-required columns</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MQMEA2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total number of NUMBER columns</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>260</v>
       </c>
     </row>
@@ -27041,7 +27026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27069,29 +27054,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQME01</t>
+          <t>MQID001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Columns with comments</t>
+          <t>Table names in singular</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>82.90%</t>
+          <t>94.74%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQME02</t>
+          <t>MQID002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Columns with data type</t>
+          <t>Table with recommended name length</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -27103,29 +27088,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQME03</t>
+          <t>MQID003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Length-required columns with data length</t>
+          <t>Columns with correct prefixes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQME04</t>
+          <t>MQID004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NUMBER columns with valid scale</t>
+          <t>Columns with recommended name size</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -27137,49 +27122,117 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQME05</t>
+          <t>MQID005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Columns with valid num_distinct</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>82.90%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQME06</t>
+          <t>MQID006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Columns with valid num_nulls</t>
+          <t>Table with standard PK prefixes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>84.38%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQME07</t>
+          <t>MQID007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Columns with valid density</t>
+          <t>Table with standard FK prefixes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>94.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQID008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Table with standard UK prefixes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQID009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NUMBER columns with valid scale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQID010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns with valid num_distinct</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQID011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns with valid num_nulls</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
